--- a/biology/Biochimie/Saturation_(chimie)/Saturation_(chimie).xlsx
+++ b/biology/Biochimie/Saturation_(chimie)/Saturation_(chimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En chimie, il existe quatre sens différents du mot saturation :
 en chimie des solutions, la saturation est la concentration à partir de laquelle une substance ne peut se dissoudre dans un solvant. Ce point de saturation dépend de la température, et de la nature du solvant et du soluté. Cette dépendance est utilisée dans l'opération de recristallisation pour la purification des composés chimiques ;
